--- a/testData/password_strategy_test_data.xlsx
+++ b/testData/password_strategy_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_strategy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="167">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,22 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有效日期最大不能超过10年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>口令长度最小值为8校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口令长度最小值为8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>口令长度请输入数字校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码策略中必须包含字母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小写字母最小长度请输入数字校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,16 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小写字母最小长度6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,9 +308,6 @@
   <si>
     <t>isomper1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>2</t>
@@ -517,14 +476,6 @@
   <si>
     <t xml:space="preserve">系统管理员
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin@123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Admin@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加资源账号验证策略二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,9 +617,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,36 +625,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F07_S22_resource_account_association_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试密码策略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.11.11.11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试密码策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令长度最小值为10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效日期最大不能超过7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小写字母长度最小值要求为1位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不符合common口令策略要求:
-长度要求:8-9
+长度要求:10-11
 小写字母长度要求:1
 大写字母长度要求:1
 数字长度要求:2
 符号长度要求:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_F07_S22_resource_account_association_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试密码策略</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.11.11.11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试密码策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,19 +1219,19 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
-    <col min="9" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
     <col min="13" max="13" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1261,28 +1249,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -1293,34 +1281,34 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="3" t="s">
@@ -1332,38 +1320,38 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1371,38 +1359,38 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1417,21 +1405,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1439,33 +1427,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="86.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1474,30 +1462,30 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1516,25 +1504,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
-    <col min="14" max="14" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
@@ -1545,37 +1533,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1583,44 +1571,44 @@
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1635,20 +1623,20 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="32" customWidth="1"/>
   </cols>
@@ -1667,28 +1655,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -1696,371 +1684,371 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -2069,40 +2057,40 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -2114,31 +2102,31 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2153,31 +2141,31 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -2186,37 +2174,37 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -2231,31 +2219,31 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -2264,37 +2252,37 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -2309,31 +2297,31 @@
         <v>111</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -2345,14 +2333,14 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2370,37 +2358,37 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+    <col min="1" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2418,12 +2406,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2437,21 +2425,21 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2468,33 +2456,33 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2511,13 +2499,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2529,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2543,7 +2531,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2555,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2572,23 +2560,23 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="19.625" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2600,49 +2588,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>2</v>
@@ -2650,16 +2638,16 @@
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>8</v>
@@ -2671,45 +2659,45 @@
         <v>0</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="10">
         <v>15210005448</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P2" s="10">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>8</v>
@@ -2721,31 +2709,31 @@
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="L3" s="10">
         <v>15210005448</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P3" s="10">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2766,31 +2754,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" customWidth="1"/>
-    <col min="16" max="16" width="44.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
+    <col min="15" max="15" width="20.75" customWidth="1"/>
+    <col min="16" max="16" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2798,96 +2786,96 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.6">
-      <c r="A2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
